--- a/Tugas Akhir/Data Regresi Spasial.xlsx
+++ b/Tugas Akhir/Data Regresi Spasial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f48a9d966e84ec3/.LIBRARY/KULIAH/Tingkat 3/Semester 5/Regresi Spasial/Proyek Spasial/Utak Atik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\4. Regresi Spasial\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{B5481F83-B56C-458E-8E09-B248A9FB2EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB8265F-B47A-4356-9A20-E7235BC4ACB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935435C-4D68-491B-9325-A15663396A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D7140440-406E-4BAB-9252-7853FAD15EB3}"/>
+    <workbookView xWindow="13620" yWindow="0" windowWidth="15285" windowHeight="17385" xr2:uid="{D7140440-406E-4BAB-9252-7853FAD15EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Placeholder" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="342">
   <si>
     <t>Nias</t>
   </si>
@@ -1060,6 +1060,12 @@
   </si>
   <si>
     <t>Jumlah Pasangan Usia Subur dan Peserta KB Aktif 2022</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LONG</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1202,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1236,6 +1242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,7 +1492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1719,9 +1731,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,26 +1822,10 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,42 +1842,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2164,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E21E62-4729-4CCB-A2A2-B8E59B4B9BD8}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,75 +2153,57 @@
     <col min="14" max="14" width="7.5703125" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="F1" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="G1" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="H1" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="I1" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="J1" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="K1" s="131" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="L1" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="M1" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="N1" s="131" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="O1" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="P1" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="S1" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="T1" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1208</v>
       </c>
@@ -2252,43 +2211,49 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>2.8468915379999999</v>
+      </c>
+      <c r="D2">
+        <v>99.533045759999993</v>
+      </c>
+      <c r="E2">
         <v>8.64</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>671</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1119177</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>230176</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>8.82</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>71.13</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>6.26</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>11515</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>65.680000000000007</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>68.73</v>
       </c>
-      <c r="N2" s="95">
+      <c r="P2" s="95">
         <v>51781</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1219</v>
       </c>
@@ -2296,43 +2261,49 @@
         <v>18</v>
       </c>
       <c r="C3">
+        <v>3.2296711180000002</v>
+      </c>
+      <c r="D3">
+        <v>99.480008459999993</v>
+      </c>
+      <c r="E3">
         <v>11.53</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>18.399999999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>372</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1109844</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>246179</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>8.26</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>69.510000000000005</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>6.21</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>10755</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>73.5</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>67.55</v>
       </c>
-      <c r="N3" s="95">
+      <c r="P3" s="95">
         <v>28259</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1210</v>
       </c>
@@ -2340,43 +2311,49 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>2.8353840950000002</v>
+      </c>
+      <c r="D4">
+        <v>98.254395979999998</v>
+      </c>
+      <c r="E4">
         <v>7.88</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>12.4</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>247</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1023193</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>125512</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>9.7200000000000006</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>72.56</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.88</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>10740</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>85.01</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>69.64</v>
       </c>
-      <c r="N4" s="95">
+      <c r="P4" s="95">
         <v>11613</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1212</v>
       </c>
@@ -2384,43 +2361,49 @@
         <v>11</v>
       </c>
       <c r="C5">
+        <v>3.4798720589999999</v>
+      </c>
+      <c r="D5">
+        <v>98.707102390000003</v>
+      </c>
+      <c r="E5">
         <v>3.62</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1.4</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>702</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1207845</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>306494</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>10.27</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>76.19</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>8.7899999999999991</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>12657</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>66.84</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>72.069999999999993</v>
       </c>
-      <c r="N5" s="95">
+      <c r="P5" s="95">
         <v>124336</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1215</v>
       </c>
@@ -2428,43 +2411,49 @@
         <v>14</v>
       </c>
       <c r="C6">
+        <v>2.2382983240000001</v>
+      </c>
+      <c r="D6">
+        <v>98.607129200000003</v>
+      </c>
+      <c r="E6">
         <v>8.86</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>16.399999999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>265</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>993122</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>110126</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>70.319999999999993</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.42</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>8250</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>85.83</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>70.02</v>
       </c>
-      <c r="N6" s="95">
+      <c r="P6" s="95">
         <v>8351</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1211</v>
       </c>
@@ -2472,43 +2461,49 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>3.0996256510000002</v>
+      </c>
+      <c r="D7">
+        <v>98.249726069999994</v>
+      </c>
+      <c r="E7">
         <v>8.17</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>16.8</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>468</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1328079</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>75705</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>10.02</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>75.36</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>2.71</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>12554</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>85.11</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>72.03</v>
       </c>
-      <c r="N7" s="95">
+      <c r="P7" s="95">
         <v>22084</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1276</v>
       </c>
@@ -2516,43 +2511,49 @@
         <v>259</v>
       </c>
       <c r="C8">
+        <v>3.600217556</v>
+      </c>
+      <c r="D8">
+        <v>98.488723089999993</v>
+      </c>
+      <c r="E8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.9</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>225</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>1221962</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>76342</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>11.18</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>76.95</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>6.36</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>11358</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>58.61</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>72.790000000000006</v>
       </c>
-      <c r="N8" s="95">
+      <c r="P8" s="95">
         <v>20470</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1278</v>
       </c>
@@ -2560,43 +2561,49 @@
         <v>260</v>
       </c>
       <c r="C9">
+        <v>1.2520347220000001</v>
+      </c>
+      <c r="D9">
+        <v>97.580451310000001</v>
+      </c>
+      <c r="E9">
         <v>14.81</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>3.4</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>119</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>858826</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>73109</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>8.64</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>70.23</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>3.65</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>8434</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>66.11</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>71.709999999999994</v>
       </c>
-      <c r="N9" s="95">
+      <c r="P9" s="95">
         <v>5611</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1275</v>
       </c>
@@ -2604,43 +2611,49 @@
         <v>261</v>
       </c>
       <c r="C10">
+        <v>3.6423669030000001</v>
+      </c>
+      <c r="D10">
+        <v>98.669493709999998</v>
+      </c>
+      <c r="E10">
         <v>8.07</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>821</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1851065</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>259011</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>11.5</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>81.760000000000005</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>8.89</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>15503</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>62.23</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>73.58</v>
       </c>
-      <c r="N10" s="95">
+      <c r="P10" s="95">
         <v>95342</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1277</v>
       </c>
@@ -2648,43 +2661,49 @@
         <v>262</v>
       </c>
       <c r="C11">
+        <v>1.3868554099999999</v>
+      </c>
+      <c r="D11">
+        <v>99.285813849999997</v>
+      </c>
+      <c r="E11">
         <v>6.89</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>15.8</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>199</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1192550</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>57641</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>11.11</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>76.05</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>7.76</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>11337</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>64.41</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>69.84</v>
       </c>
-      <c r="N11" s="95">
+      <c r="P11" s="95">
         <v>13733</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1273</v>
       </c>
@@ -2692,43 +2711,49 @@
         <v>263</v>
       </c>
       <c r="C12">
+        <v>2.9545861289999999</v>
+      </c>
+      <c r="D12">
+        <v>99.063493789999995</v>
+      </c>
+      <c r="E12">
         <v>7.88</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>1.6</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>380</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1304827</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>90166</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>11.31</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>79.7</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>9.36</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>12744</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>65.27</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>74.25</v>
       </c>
-      <c r="N12" s="95">
+      <c r="P12" s="95">
         <v>11681</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1271</v>
       </c>
@@ -2736,43 +2761,49 @@
         <v>264</v>
       </c>
       <c r="C13">
+        <v>1.730832272</v>
+      </c>
+      <c r="D13">
+        <v>98.784060299999993</v>
+      </c>
+      <c r="E13">
         <v>11.47</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>224</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1355934</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>33951</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>10.43</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>74.739999999999995</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>7.05</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>12135</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>65.849999999999994</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>69.77</v>
       </c>
-      <c r="N13" s="95">
+      <c r="P13" s="95">
         <v>5724</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1272</v>
       </c>
@@ -2780,43 +2811,49 @@
         <v>265</v>
       </c>
       <c r="C14">
+        <v>2.9727883369999999</v>
+      </c>
+      <c r="D14">
+        <v>99.795399720000006</v>
+      </c>
+      <c r="E14">
         <v>12.45</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1.3</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>264</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1212640</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>102400</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>69.86</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>4.62</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>11589</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>70.77</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>63.87</v>
       </c>
-      <c r="N14" s="95">
+      <c r="P14" s="95">
         <v>12236</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1274</v>
       </c>
@@ -2824,43 +2861,49 @@
         <v>266</v>
       </c>
       <c r="C15">
+        <v>3.32806684</v>
+      </c>
+      <c r="D15">
+        <v>99.154126439999999</v>
+      </c>
+      <c r="E15">
         <v>9.59</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2.5</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>231</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>1247833</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>68059</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>10.65</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>76.17</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>6.39</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>13144</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>77.260000000000005</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <v>71.290000000000006</v>
       </c>
-      <c r="N15" s="95">
+      <c r="P15" s="95">
         <v>10895</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1207</v>
       </c>
@@ -2868,43 +2911,49 @@
         <v>6</v>
       </c>
       <c r="C16">
+        <v>2.2702342629999999</v>
+      </c>
+      <c r="D16">
+        <v>100.0132303</v>
+      </c>
+      <c r="E16">
         <v>8.26</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.7</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>400</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>1080056</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>157992</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>9.4</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>72.92</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>6.9</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>11474</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>63.51</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <v>70.37</v>
       </c>
-      <c r="N16" s="95">
+      <c r="P16" s="95">
         <v>28507</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1222</v>
       </c>
@@ -2912,43 +2961,49 @@
         <v>189</v>
       </c>
       <c r="C17">
+        <v>1.8337746939999999</v>
+      </c>
+      <c r="D17">
+        <v>100.06049729999999</v>
+      </c>
+      <c r="E17">
         <v>8.09</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1.9</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>186</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1130765</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>40016</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>8.92</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>72.16</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>3.15</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>11751</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>66.760000000000005</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <v>69.16</v>
       </c>
-      <c r="N17" s="95">
+      <c r="P17" s="95">
         <v>18140</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1223</v>
       </c>
@@ -2956,43 +3011,49 @@
         <v>190</v>
       </c>
       <c r="C18">
+        <v>2.4255693100000002</v>
+      </c>
+      <c r="D18">
+        <v>99.734228540000004</v>
+      </c>
+      <c r="E18">
         <v>9.09</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2.1</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>293</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>1157202</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>126001</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>8.64</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>72.77</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>3.75</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>12258</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>65.31</v>
       </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
         <v>69.91</v>
       </c>
-      <c r="N18" s="95">
+      <c r="P18" s="95">
         <v>22808</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1213</v>
       </c>
@@ -3000,43 +3061,49 @@
         <v>12</v>
       </c>
       <c r="C19">
+        <v>3.7602122310000001</v>
+      </c>
+      <c r="D19">
+        <v>98.232573950000003</v>
+      </c>
+      <c r="E19">
         <v>9.49</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>15.3</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>641</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1073134</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>271188</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>8.68</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>71.86</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>6.88</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>11439</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>71.510000000000005</v>
       </c>
-      <c r="M19" s="1">
+      <c r="O19" s="1">
         <v>69.39</v>
       </c>
-      <c r="N19" s="95">
+      <c r="P19" s="95">
         <v>75325</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1202</v>
       </c>
@@ -3044,43 +3111,49 @@
         <v>1</v>
       </c>
       <c r="C20">
+        <v>0.77960487199999995</v>
+      </c>
+      <c r="D20">
+        <v>99.390625839999998</v>
+      </c>
+      <c r="E20">
         <v>8.92</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>528</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>986053</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>102181</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>8.76</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>68.05</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>7.64</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>10061</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>71.150000000000006</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="1">
         <v>63.05</v>
       </c>
-      <c r="N20" s="95">
+      <c r="P20" s="95">
         <v>23295</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1201</v>
       </c>
@@ -3088,43 +3161,49 @@
         <v>0</v>
       </c>
       <c r="C21">
+        <v>1.0843094120000001</v>
+      </c>
+      <c r="D21">
+        <v>97.730102599999995</v>
+      </c>
+      <c r="E21">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>136</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>756507</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>86862</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>5.88</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>63.69</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>2.81</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>7196</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>84.5</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>70.06</v>
       </c>
-      <c r="N21" s="95">
+      <c r="P21" s="95">
         <v>6307</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1225</v>
       </c>
@@ -3132,43 +3211,49 @@
         <v>22</v>
       </c>
       <c r="C22">
+        <v>0.98231663499999999</v>
+      </c>
+      <c r="D22">
+        <v>97.457968399999999</v>
+      </c>
+      <c r="E22">
         <v>24.75</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>11.6</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>93</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>616939</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>68765</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>6.97</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>62.93</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.53</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>6152</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>84.63</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>69.430000000000007</v>
       </c>
-      <c r="N22" s="95">
+      <c r="P22" s="95">
         <v>3324</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1214</v>
       </c>
@@ -3176,43 +3261,49 @@
         <v>13</v>
       </c>
       <c r="C23">
+        <v>0.19799531200000001</v>
+      </c>
+      <c r="D23">
+        <v>98.233614650000007</v>
+      </c>
+      <c r="E23">
         <v>16.48</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>12.6</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>132</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>666410</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>141292</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>6.23</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>63.17</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>3.69</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>7195</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>78.540000000000006</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <v>69.209999999999994</v>
       </c>
-      <c r="N23" s="95">
+      <c r="P23" s="95">
         <v>8540</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1224</v>
       </c>
@@ -3220,43 +3311,49 @@
         <v>21</v>
       </c>
       <c r="C24">
+        <v>1.3101570360000001</v>
+      </c>
+      <c r="D24">
+        <v>97.29016824</v>
+      </c>
+      <c r="E24">
         <v>23.4</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>78</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>710926</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>93720</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>6.78</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>63.75</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2.59</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>6575</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>77.75</v>
       </c>
-      <c r="M24" s="1">
+      <c r="O24" s="1">
         <v>69.900000000000006</v>
       </c>
-      <c r="N24" s="95">
+      <c r="P24" s="95">
         <v>6718</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1221</v>
       </c>
@@ -3264,43 +3361,49 @@
         <v>20</v>
       </c>
       <c r="C25">
+        <v>1.156542242</v>
+      </c>
+      <c r="D25">
+        <v>99.801475449999998</v>
+      </c>
+      <c r="E25">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>5.5</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>381</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1115276</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>76571</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>9.31</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>69.58</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>5.9</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>9207</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>75.099999999999994</v>
       </c>
-      <c r="M25" s="1">
+      <c r="O25" s="1">
         <v>67.430000000000007</v>
       </c>
-      <c r="N25" s="95">
+      <c r="P25" s="95">
         <v>18064</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1220</v>
       </c>
@@ -3308,43 +3411,49 @@
         <v>19</v>
       </c>
       <c r="C26">
+        <v>1.6364092690000001</v>
+      </c>
+      <c r="D26">
+        <v>99.845542890000004</v>
+      </c>
+      <c r="E26">
         <v>8.94</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>10.7</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>182</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1140732</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>49007</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>9.4600000000000009</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>70.930000000000007</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>10447</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>70.33</v>
       </c>
-      <c r="M26" s="1">
+      <c r="O26" s="1">
         <v>67.53</v>
       </c>
-      <c r="N26" s="95">
+      <c r="P26" s="95">
         <v>15631</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1216</v>
       </c>
@@ -3352,43 +3461,49 @@
         <v>15</v>
       </c>
       <c r="C27">
+        <v>2.5302778539999999</v>
+      </c>
+      <c r="D27">
+        <v>98.268525890000006</v>
+      </c>
+      <c r="E27">
         <v>8.66</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>20.100000000000001</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>86</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1124641</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>12480</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>9.39</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>68.849999999999994</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.26</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>8558</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>86.2</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <v>66.44</v>
       </c>
-      <c r="N27" s="95">
+      <c r="P27" s="95">
         <v>2858</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1217</v>
       </c>
@@ -3396,43 +3511,49 @@
         <v>16</v>
       </c>
       <c r="C28">
+        <v>2.5551344899999999</v>
+      </c>
+      <c r="D28">
+        <v>98.696777769999997</v>
+      </c>
+      <c r="E28">
         <v>11.77</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>13.6</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>159</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>1243086</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>76867</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>9.4600000000000009</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>71.67</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>8991</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <v>83.57</v>
       </c>
-      <c r="M28" s="1">
+      <c r="O28" s="1">
         <v>71.819999999999993</v>
       </c>
-      <c r="N28" s="95">
+      <c r="P28" s="95">
         <v>5664</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1218</v>
       </c>
@@ -3440,43 +3561,49 @@
         <v>17</v>
       </c>
       <c r="C29">
+        <v>3.3492203520000001</v>
+      </c>
+      <c r="D29">
+        <v>99.031442709999993</v>
+      </c>
+      <c r="E29">
         <v>7.82</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>3.4</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>374</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1050164</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>256512</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>8.7100000000000009</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>71.209999999999994</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>11499</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>67.59</v>
       </c>
-      <c r="M29" s="1">
+      <c r="O29" s="1">
         <v>69.209999999999994</v>
       </c>
-      <c r="N29" s="95">
+      <c r="P29" s="95">
         <v>50991</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1209</v>
       </c>
@@ -3484,43 +3611,49 @@
         <v>8</v>
       </c>
       <c r="C30">
+        <v>2.95061252</v>
+      </c>
+      <c r="D30">
+        <v>99.049254790000006</v>
+      </c>
+      <c r="E30">
         <v>8.26</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>2.1</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>515</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1079047</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>212965</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>9.6300000000000008</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>73.77</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>5.51</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>11524</v>
       </c>
-      <c r="L30" s="1">
+      <c r="N30" s="1">
         <v>69.91</v>
       </c>
-      <c r="M30" s="1">
+      <c r="O30" s="1">
         <v>71.78</v>
       </c>
-      <c r="N30" s="95">
+      <c r="P30" s="95">
         <v>52586</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1203</v>
       </c>
@@ -3528,43 +3661,49 @@
         <v>2</v>
       </c>
       <c r="C31">
+        <v>1.551068315</v>
+      </c>
+      <c r="D31">
+        <v>99.178020470000007</v>
+      </c>
+      <c r="E31">
         <v>8.07</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>0.9</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>271</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>985014</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>107299</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>9.34</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>70.92</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>3.65</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>11727</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>74.53</v>
       </c>
-      <c r="M31" s="1">
+      <c r="O31" s="1">
         <v>65.28</v>
       </c>
-      <c r="N31" s="95">
+      <c r="P31" s="95">
         <v>19486</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1204</v>
       </c>
@@ -3572,43 +3711,49 @@
         <v>3</v>
       </c>
       <c r="C32">
+        <v>1.8678096529999999</v>
+      </c>
+      <c r="D32">
+        <v>98.596159940000007</v>
+      </c>
+      <c r="E32">
         <v>11.71</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>6.8</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>367</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>910016</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>189131</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>8.86</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>70.31</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>7.97</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>10495</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>76.510000000000005</v>
       </c>
-      <c r="M32" s="1">
+      <c r="O32" s="1">
         <v>67.58</v>
       </c>
-      <c r="N32" s="95">
+      <c r="P32" s="95">
         <v>17138</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1205</v>
       </c>
@@ -3616,43 +3761,49 @@
         <v>4</v>
       </c>
       <c r="C33">
+        <v>2.0112491700000001</v>
+      </c>
+      <c r="D33">
+        <v>99.068779579999998</v>
+      </c>
+      <c r="E33">
         <v>8.93</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>6.3</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>504</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>980647</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>159410</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>74.14</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>1.07</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>11892</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>81.069999999999993</v>
       </c>
-      <c r="M33" s="1">
+      <c r="O33" s="1">
         <v>69.16</v>
       </c>
-      <c r="N33" s="95">
+      <c r="P33" s="95">
         <v>13954</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1206</v>
       </c>
@@ -3660,39 +3811,45 @@
         <v>5</v>
       </c>
       <c r="C34">
+        <v>2.3855824929999998</v>
+      </c>
+      <c r="D34">
+        <v>99.24665091</v>
+      </c>
+      <c r="E34">
         <v>8.89</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>6.5</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>458</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1314085</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>90144</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>10.58</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>75.959999999999994</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>1.39</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>12475</v>
       </c>
-      <c r="L34" s="1">
+      <c r="N34" s="1">
         <v>79.040000000000006</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O34" s="1">
         <v>70.760000000000005</v>
       </c>
-      <c r="N34" s="95">
+      <c r="P34" s="95">
         <v>8645</v>
       </c>
     </row>
@@ -3720,17 +3877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="54">
         <v>2020</v>
       </c>
@@ -4240,17 +4397,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="126" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="126"/>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
@@ -4738,32 +4895,32 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4792,17 +4949,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
+      <c r="A2" s="126"/>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
@@ -5313,18 +5470,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="127" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
@@ -5339,26 +5496,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="130" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="94" t="s">
         <v>288</v>
       </c>
@@ -6515,191 +6672,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D93BB14-DB68-424F-96DA-CA2D0D36D644}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="122" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="97" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="98" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="101" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="101" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="101" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="101" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="102" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="101" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="105" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="102" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="102" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="102" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="103"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="103"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="103"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="103"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="103"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="103"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="103"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="B21" s="129"/>
+      <c r="B21" s="103"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="129"/>
+      <c r="B22" s="103"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="B23" s="129"/>
+      <c r="B23" s="103"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="129"/>
+      <c r="B24" s="103"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6726,52 +6883,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="97" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="106" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="97"/>
+      <c r="F3" s="106"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -7434,10 +7591,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="98"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="36">
         <v>885985</v>
       </c>
@@ -8488,46 +8645,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="104" t="s">
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="61">
         <v>2020</v>
       </c>
@@ -9712,10 +9869,10 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="71">
         <v>598245</v>
       </c>
@@ -9963,34 +10120,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="113"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="113"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
@@ -10665,10 +10822,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="121"/>
       <c r="C37" s="22" t="s">
         <v>176</v>
       </c>
@@ -12482,11 +12639,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -12863,10 +13020,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="101"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="74">
         <v>6.16</v>
       </c>
